--- a/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_01_beg.xlsx
+++ b/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_01_beg.xlsx
@@ -896,7 +896,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The moment of peace you’ve longed for. A land without warfare, the embrace of your mother.
+    <t xml:space="preserve">The moment of peace you've longed for. A land without warfare, the embrace of your mother.
 </t>
   </si>
   <si>
@@ -904,7 +904,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="What is freedom?;I’m free!", values="1;2")]
+    <t xml:space="preserve">[Decision(options="What is freedom?;I'm free!", values="1;2")]
 </t>
   </si>
   <si>
@@ -916,7 +916,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">That’s right, my dear friend. You are free, and you forever will be.
+    <t xml:space="preserve">That's right, my dear friend. You are free, and you forever will be.
 </t>
   </si>
   <si>
@@ -940,7 +940,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="I want to build my kingdom here!;No, on second thought, I’m more of a masochist.", values="3;4")]
+    <t xml:space="preserve">[Decision(options="I want to build my kingdom here!;No, on second thought, I'm more of a masochist.", values="3;4")]
 </t>
   </si>
   <si>
@@ -948,7 +948,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">First of all, let’s found a country. How about naming it the Land of Existence?
+    <t xml:space="preserve">First of all, let's found a country. How about naming it the Land of Existence?
 </t>
   </si>
   <si>
@@ -976,7 +976,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Well then. Firstly, let’s grant you some of that pain that you love oh so much——
+    <t xml:space="preserve">Well then. Firstly, let's grant you some of that pain that you love oh so much——
 </t>
   </si>
   <si>
@@ -996,7 +996,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="You’re right. It’s time for me to rest.;No, there are people waiting for me.",values="5;6")]
+    <t xml:space="preserve">[Decision(options="You're right. It's time for me to rest.;No, there are people waiting for me.",values="5;6")]
 </t>
   </si>
   <si>
@@ -1024,7 +1024,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">...Fine. Since you have already made your decision, I shall grant you a surprise. That’s right, it is none other than the pain you love so much!
+    <t xml:space="preserve">...Fine. Since you have already made your decision, I shall grant you a surprise. That's right, it is none other than the pain you love so much!
 </t>
   </si>
   <si>
@@ -1036,7 +1036,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Amiya? No, no. This voice is far more mature than Amiya’s.
+    <t xml:space="preserve">Amiya? No, no. This voice is far more mature than Amiya's.
 </t>
   </si>
   <si>
@@ -1052,7 +1052,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="? ??"]  That didn’t do the trick... Hmm, what should I do? Since Amiya isn’t here, guess I’ll just give the Doctor a few rounds of the whirlwind.
+    <t xml:space="preserve">[name="? ??"]  That didn't do the trick... Hmm, what should I do? Since Amiya isn't here, guess I'll just give the Doctor a few rounds of the whirlwind.
 </t>
   </si>
   <si>
@@ -1084,11 +1084,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  What you want to do is grab the person’s legs or hands, then start spinning in a circle.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  When you’re ready, just let go.
+    <t xml:space="preserve">[name="Gavial"]  What you want to do is grab the person's legs or hands, then start spinning in a circle.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  When you're ready, just let go.
 </t>
   </si>
   <si>
@@ -1096,19 +1096,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Sure. I’ll just catch the Doctor after... Oh?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Doctor, you’re finally awake.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ceobe"]  Ah, it’s the Doctor!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Kay, don’t tackle the Doctor like that. Crush those organs and that one won’t stay with us for long.
+    <t xml:space="preserve">[name="Gavial"]  Sure. I'll just catch the Doctor after... Oh?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Doctor, you're finally awake.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ceobe"]  Ah, it's the Doctor!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Kay, don't tackle the Doctor like that. Crush those organs and that one won't stay with us for long.
 </t>
   </si>
   <si>
@@ -1120,27 +1120,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  I’m fine. This isn’t high enough to scare me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ceobe"]  I’m fine too!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Uh oh. Don’t tell me you tripped and lost your memory again, Doctor.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="I have amnesia.;And who might you be, Ma’am?",values="4;5")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Don’t forget, I’m a doctor too. The real, medical kind.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  But if you’re cracking jokes, I guess you’re good.
+    <t xml:space="preserve">[name="Gavial"]  I'm fine. This isn't high enough to scare me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ceobe"]  I'm fine too!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Uh oh. Don't tell me you tripped and lost your memory again, Doctor.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="I have amnesia.;And who might you be, Ma'am?",values="4;5")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Don't forget, I'm a doctor too. The real, medical kind.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  But if you're cracking jokes, I guess you're good.
 </t>
   </si>
   <si>
@@ -1164,11 +1164,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Tch, fine. Basically, Doctor, you’re bad luck. During the attack, something exploded by your seat and you slammed into the wall there and passed out.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Don’t worry, I took care of your wounds. Nothing major. Besides, you’re healthier now than when you first showed up at Rhodes Island.  Nice work, Doctor.
+    <t xml:space="preserve">[name="Gavial"]  Tch, fine. Basically, Doctor, you're bad luck. During the attack, something exploded by your seat and you slammed into the wall there and passed out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Don't worry, I took care of your wounds. Nothing major. Besides, you're healthier now than when you first showed up at Rhodes Island.  Nice work, Doctor.
 </t>
   </si>
   <si>
@@ -1176,7 +1176,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Can’t blame you for that. To be honest, I never would have expected these bastards to have anti-air weapons.
+    <t xml:space="preserve">[name="Gavial"]  Can't blame you for that. To be honest, I never would have expected these bastards to have anti-air weapons.
 </t>
   </si>
   <si>
@@ -1204,15 +1204,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="Where’s the aircraft?", values="1")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  I think it’s that way. Should be just over the hill.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="Let’s go check on it.", values="1")]
+    <t xml:space="preserve">[Decision(options="Where's the aircraft?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  I think it's that way. Should be just over the hill.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Let's go check on it.", values="1")]
 </t>
   </si>
   <si>
@@ -1220,23 +1220,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  See? The aircraft’s right there.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Oh? That’s a lot of smoke. It’s not in good shape.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  I guess it’s still fixable, though.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ceobe"]  Doctor, Gavial, there’s people with the aircraft!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Hm?  That’s...
+    <t xml:space="preserve">[name="Gavial"]  See? The aircraft's right there.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Oh? That's a lot of smoke. It's not in good shape.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  I guess it's still fixable, though.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ceobe"]  Doctor, Gavial, there's people with the aircraft!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Hm?  That's...
 </t>
   </si>
   <si>
@@ -1248,19 +1248,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria B"]  Yeah, not only did such an amazing machine fall from the sky, there’s another machine that can talk inside it!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria C"]  Do you think there’s a person inside?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria A"]  No idea. Why don’t we bring it back? Leader’s sure to like it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria B"]  Sure, let’s take it!
+    <t xml:space="preserve">[name="Archosauria B"]  Yeah, not only did such an amazing machine fall from the sky, there's another machine that can talk inside it!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria C"]  Do you think there's a person inside?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria A"]  No idea. Why don't we bring it back? Leader's sure to like it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria B"]  Sure, let's take it!
 </t>
   </si>
   <si>
@@ -1272,7 +1272,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria A"]  ...&amp;% (Who’s there? !)
+    <t xml:space="preserve">[name="Archosauria A"]  ...&amp;% (Who's there? !)
 </t>
   </si>
   <si>
@@ -1280,11 +1280,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria A"]  ...￥%%# (Who says it’s your stuff? It fell from the sky! )
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria B"]  @#%...&amp; (Yeah, that’s right! Finders keepers! ) 
+    <t xml:space="preserve">[name="Archosauria A"]  ...￥%%# (Who says it's your stuff? It fell from the sky! )
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria B"]  @#%...&amp; (Yeah, that's right! Finders keepers! ) 
 </t>
   </si>
   <si>
@@ -1292,19 +1292,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="Gavial, what’re they saying?", values="1")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Hm?  Ah, right. I forgot you guys don’t speak the language.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  We’re in Sargon, but no one here speaks standard Sargonian.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  I’ll translate anything anyone says to you.
+    <t xml:space="preserve">[Decision(options="Gavial, what're they saying?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Hm?  Ah, right. I forgot you guys don't speak the language.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  We're in Sargon, but no one here speaks standard Sargonian.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  I'll translate anything anyone says to you.
 </t>
   </si>
   <si>
@@ -1316,7 +1316,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  I said: if this stuff is yours, I just have to beat you up and it’ll all be mine!
+    <t xml:space="preserve">[name="Gavial"]  I said: if this stuff is yours, I just have to beat you up and it'll all be mine!
 </t>
   </si>
   <si>
